--- a/spreadsheet/blob_storage_security_checklist.en.xlsx
+++ b/spreadsheet/blob_storage_security_checklist.en.xlsx
@@ -1108,7 +1108,11 @@
           <t>Consider the 'Azure security baseline for storage'</t>
         </is>
       </c>
-      <c r="D8" s="22" t="n"/>
+      <c r="D8" s="22" t="inlineStr">
+        <is>
+          <t>Apply guidance from the Microsoft cloud security benchmark related to Storage</t>
+        </is>
+      </c>
       <c r="E8" s="22" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1206,7 +1210,7 @@
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t>Newly created storage accounts are created using the ARM deployment model, so that RBAC, auditing etc. are all enabled. Ensure that there are no old storage accounts with classic deloyment model in a subscription</t>
+          <t>Newly created storage accounts are created using the ARM deployment model, so that RBAC, auditing etc. are all enabled. Ensure that there are no old storage accounts with classic deployment model in a subscription</t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
@@ -1506,7 +1510,7 @@
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>Prevents accidental deletion of a storage account, by forcing the user to first remove the deletion lock, prior deletion</t>
+          <t>Prevents accidental deletion of a storage account, by forcing the user to first remove the deletion lock, prior to deletion</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
@@ -1801,7 +1805,7 @@
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Least privilige in IaM permissions</t>
+          <t>Least privilege in IaM permissions</t>
         </is>
       </c>
       <c r="D22" s="22" t="inlineStr">
@@ -1947,10 +1951,14 @@
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Consider using Azure Monitor to trace who/when lists/views the storage account keys.</t>
-        </is>
-      </c>
-      <c r="D25" s="22" t="n"/>
+          <t>Consider using Azure Monitor to audit control plane operations on the storage account</t>
+        </is>
+      </c>
+      <c r="D25" s="22" t="inlineStr">
+        <is>
+          <t>Use Activity Log data to identify 'when', 'who', 'what' and 'how' the security of your storage account is being viewed or changed (i.e. storage account keys, access policies, etc.).</t>
+        </is>
+      </c>
       <c r="E25" s="22" t="inlineStr">
         <is>
           <t>High</t>
@@ -1962,7 +1970,11 @@
         </is>
       </c>
       <c r="G25" s="22" t="n"/>
-      <c r="H25" s="16" t="n"/>
+      <c r="H25" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/blob-storage-monitoring-scenarios#audit-account-activity</t>
+        </is>
+      </c>
       <c r="I25" s="16" t="n"/>
       <c r="J25" s="23" t="n"/>
       <c r="K25" s="23" t="n"/>
@@ -2187,7 +2199,7 @@
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t>Ideally, your application should be using a managed identity to authenticate to Azure Storage. If that is not possible, consider having the storage credential (connection string, storage account key, SAS, service pricipal credential) in Azure KeyVault or an equivalent service.</t>
+          <t>Ideally, your application should be using a managed identity to authenticate to Azure Storage. If that is not possible, consider having the storage credential (connection string, storage account key, SAS, service principal credential) in Azure KeyVault or an equivalent service.</t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
@@ -2335,7 +2347,7 @@
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">A SAS can include parameters on which client IP addresses or adress ranges are authorized to request a resource using the SAS. </t>
+          <t xml:space="preserve">A SAS can include parameters on which client IP addresses or address ranges are authorized to request a resource using the SAS. </t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
@@ -11856,7 +11868,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -11940,7 +11952,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -11972,7 +11984,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Security, Governance, and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -12004,7 +12016,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Application Automation and DevOps</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -12031,7 +12043,7 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">

--- a/spreadsheet/blob_storage_security_checklist.en.xlsx
+++ b/spreadsheet/blob_storage_security_checklist.en.xlsx
@@ -1150,22 +1150,18 @@
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>CI/CD</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Consider using private endpoints for Azure Storage</t>
-        </is>
-      </c>
-      <c r="D9" s="22" t="inlineStr">
-        <is>
-          <t>Azure Storage by default has a public IP address and is Internet-reachable. Private endpoints allow to securely expose Azure Storage only to those Azure Compute resources that need access, thus eliminating exposure to the public Internet</t>
-        </is>
-      </c>
+          <t>Consider configuring your application's source code repository to detect checked-in connection strings and storage account keys.</t>
+        </is>
+      </c>
+      <c r="D9" s="22" t="n"/>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1176,7 +1172,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-private-endpoints</t>
+          <t>https://microsoft.github.io/code-with-engineering-playbook/continuous-integration/dev-sec-ops/secret-management/recipes/detect-secrets-ado/</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1184,7 +1180,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
+          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1200,17 +1196,17 @@
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Confidentiality</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Ensure older storage accounts are not using 'classic deployment model'</t>
+          <t>Disable 'soft delete' for blobs</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t>Newly created storage accounts are created using the ARM deployment model, so that RBAC, auditing etc. are all enabled. Ensure that there are no old storage accounts with classic deployment model in a subscription</t>
+          <t xml:space="preserve">Consider selectively disabling 'soft delete' for certain blob containers, for example if the application must ensure that deleted information is immediately deleted, e.g. for confidentiality, privacy or compliance reasons. </t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
@@ -1226,7 +1222,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/migration-classic-resource-manager-overview#migration-of-storage-accounts</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-blob-enable</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1234,7 +1230,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
+          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1250,22 +1246,22 @@
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Confidentiality</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Enable Microsoft Defender for all of your storage accounts</t>
+          <t>Disable 'soft delete' for containers</t>
         </is>
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t>Leverage Microsoft Defender to learn about suspicious activity and misconfigurations.</t>
+          <t xml:space="preserve">Consider selectively disabling 'soft delete' for certain blob containers, for example if the application must ensure that deleted information is immediately deleted, e.g. for confidentiality, privacy or compliance reasons. </t>
         </is>
       </c>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1276,7 +1272,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/azure-defender-storage-configure</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-container-enable</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1284,7 +1280,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
+          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1300,22 +1296,22 @@
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Data Availability</t>
+          <t>Confidentiality and Encryption</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Enable 'soft delete' for blobs</t>
+          <t>Determine how data at rest should be encrypted. Understand the thread model for data.</t>
         </is>
       </c>
       <c r="D12" s="22" t="inlineStr">
         <is>
-          <t>The soft-delete mechanism allows to recover accidentally deleted blobs.</t>
+          <t>Data at rest is always encrypted server-side, and in addition might be encrypted client-side as well. Server-side encryption might happen using a platform-managed key (default) or customer-managed key. Client-side encryption might happen by either having the client supply an encryption/decryption key on a per-blob basis to Azure storage, or by completely handling encryption on the client-side. thus not relying on Azure Storage at all for confidentiality guarantees.</t>
         </is>
       </c>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1326,7 +1322,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-blob-overview</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1334,7 +1330,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
+          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1350,19 +1346,15 @@
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Confidentiality</t>
+          <t>Confidentiality and Encryption</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Disable 'soft delete' for blobs</t>
-        </is>
-      </c>
-      <c r="D13" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consider selectively disabling 'soft delete' for certain blob containers, for example if the application must ensure that deleted information is immediately deleted, e.g. for confidentiality, privacy or compliance reasons. </t>
-        </is>
-      </c>
+          <t>Determine which/if platform encryption should be used.</t>
+        </is>
+      </c>
+      <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1376,7 +1368,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-blob-enable</t>
+          <t>https://learn.microsoft.com/azure/storage/common/customer-managed-keys-overview?toc=%2Fazure%2Fstorage%2Fblobs%2Ftoc.json&amp;bc=%2Fazure%2Fstorage%2Fblobs%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1384,7 +1376,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
+          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1400,22 +1392,18 @@
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Data Availability</t>
+          <t>Confidentiality and Encryption</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Enable 'soft delete' for containers</t>
-        </is>
-      </c>
-      <c r="D14" s="22" t="inlineStr">
-        <is>
-          <t>Soft delete for containers enables you to recover a container after it has been deleted, for example recover from an accidental delete operation.</t>
-        </is>
-      </c>
+          <t>Determine which/if client-side encryption should be used.</t>
+        </is>
+      </c>
+      <c r="D14" s="22" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1426,7 +1414,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-container-overview</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/encryption-customer-provided-keys</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1434,7 +1422,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
+          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1450,17 +1438,17 @@
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Confidentiality</t>
+          <t>Data Availability</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Disable 'soft delete' for containers</t>
+          <t>Enable 'soft delete' for blobs</t>
         </is>
       </c>
       <c r="D15" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consider selectively disabling 'soft delete' for certain blob containers, for example if the application must ensure that deleted information is immediately deleted, e.g. for confidentiality, privacy or compliance reasons. </t>
+          <t>The soft-delete mechanism allows to recover accidentally deleted blobs.</t>
         </is>
       </c>
       <c r="E15" s="22" t="inlineStr">
@@ -1476,7 +1464,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-container-enable</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-blob-overview</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1484,7 +1472,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
+          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1505,12 +1493,12 @@
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Enable resource locks on storage accounts</t>
+          <t>Enable 'soft delete' for containers</t>
         </is>
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>Prevents accidental deletion of a storage account, by forcing the user to first remove the deletion lock, prior to deletion</t>
+          <t>Soft delete for containers enables you to recover a container after it has been deleted, for example recover from an accidental delete operation.</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
@@ -1526,7 +1514,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/lock-account-resource</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-container-overview</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1534,7 +1522,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
+          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1550,17 +1538,17 @@
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Data Availability, Compliance</t>
+          <t>Data Availability</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Consider immutable blobs</t>
+          <t>Enable resource locks on storage accounts</t>
         </is>
       </c>
       <c r="D17" s="22" t="inlineStr">
         <is>
-          <t>Consider 'legal hold' or 'time-based retention' policies for blobs, so that is is impossible to delete the blob, the container, or the storage account. Please note that 'impossible' actually means 'impossible'; once a storage account contains an immutable blob, the only way to 'get rid' of that storage account is by cancelling the Azure subscription.</t>
+          <t>Prevents accidental deletion of a storage account, by forcing the user to first remove the deletion lock, prior to deletion</t>
         </is>
       </c>
       <c r="E17" s="22" t="inlineStr">
@@ -1576,7 +1564,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/immutable-storage-overview</t>
+          <t>https://learn.microsoft.com/azure/storage/common/lock-account-resource</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1584,7 +1572,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
+          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1600,17 +1588,17 @@
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Data Availability, Compliance</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Require HTTPS, i.e. disable port 80 on the storage account</t>
+          <t>Consider immutable blobs</t>
         </is>
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consider disabling unprotected HTTP/80 access to the storage account, so that all data transfers are encrypted, integrity protected, and the server is authenticated. </t>
+          <t>Consider 'legal hold' or 'time-based retention' policies for blobs, so that is is impossible to delete the blob, the container, or the storage account. Please note that 'impossible' actually means 'impossible'; once a storage account contains an immutable blob, the only way to 'get rid' of that storage account is by cancelling the Azure subscription.</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
@@ -1626,7 +1614,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/immutable-storage-overview</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1634,7 +1622,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
+          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1650,22 +1638,22 @@
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>When enforcing HTTPS (disabling HTTP), check that you do not use custom domains (CNAME) for the storage account.</t>
+          <t>Ensure older storage accounts are not using 'classic deployment model'</t>
         </is>
       </c>
       <c r="D19" s="22" t="inlineStr">
         <is>
-          <t>When configuring a custom domain (hostname) on a storage account, check whether you need TLS/HTTPS; if so, you might have to put Azure CDN in front of your storage account.</t>
+          <t>Newly created storage accounts are created using the ARM deployment model, so that RBAC, auditing etc. are all enabled. Ensure that there are no old storage accounts with classic deployment model in a subscription</t>
         </is>
       </c>
       <c r="E19" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1676,7 +1664,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/storage-custom-domain-name</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/migration-classic-resource-manager-overview#migration-of-storage-accounts</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1684,7 +1672,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
+          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1700,22 +1688,22 @@
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Limit shared access signature (SAS) tokens to HTTPS connections only</t>
+          <t>Enable Microsoft Defender for all of your storage accounts</t>
         </is>
       </c>
       <c r="D20" s="22" t="inlineStr">
         <is>
-          <t>Requiring HTTPS when a client uses a SAS token to access blob data helps to minimize the risk of credential loss.</t>
+          <t>Leverage Microsoft Defender to learn about suspicious activity and misconfigurations.</t>
         </is>
       </c>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1726,7 +1714,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-sas-overview</t>
+          <t>https://learn.microsoft.com/azure/storage/common/azure-defender-storage-configure</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1734,7 +1722,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
+          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1946,22 +1934,22 @@
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Consider using Azure Monitor to audit control plane operations on the storage account</t>
+          <t>When using storage account keys, consider enabling a 'key expiration policy'</t>
         </is>
       </c>
       <c r="D25" s="22" t="inlineStr">
         <is>
-          <t>Use Activity Log data to identify 'when', 'who', 'what' and 'how' the security of your storage account is being viewed or changed (i.e. storage account keys, access policies, etc.).</t>
+          <t>A key expiration policy enables you to set a reminder for the rotation of the account access keys. The reminder is displayed if the specified interval has elapsed and the keys have not yet been rotated.</t>
         </is>
       </c>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1972,7 +1960,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/blob-storage-monitoring-scenarios#audit-account-activity</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-account-keys-manage?tabs=azure-portal#create-a-key-expiration-policy</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1980,7 +1968,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -2001,12 +1989,12 @@
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>When using storage account keys, consider enabling a 'key expiration policy'</t>
+          <t>Consider configuring an SAS expiration policy</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
         <is>
-          <t>A key expiration policy enables you to set a reminder for the rotation of the account access keys. The reminder is displayed if the specified interval has elapsed and the keys have not yet been rotated.</t>
+          <t>A SAS expiration policy specifies a recommended interval over which the SAS is valid. SAS expiration policies apply to a service SAS or an account SAS. When a user generates service SAS or an account SAS with a validity interval that is larger than the recommended interval, they'll see a warning.</t>
         </is>
       </c>
       <c r="E26" s="22" t="inlineStr">
@@ -2022,7 +2010,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-account-keys-manage?tabs=azure-portal#create-a-key-expiration-policy</t>
+          <t>https://learn.microsoft.com/azure/storage/common/sas-expiration-policy</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -2030,7 +2018,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2051,12 +2039,12 @@
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Consider configuring an SAS expiration policy</t>
+          <t>Consider linking SAS to a stored access policy</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
         <is>
-          <t>A SAS expiration policy specifies a recommended interval over which the SAS is valid. SAS expiration policies apply to a service SAS or an account SAS. When a user generates service SAS or an account SAS with a validity interval that is larger than the recommended interval, they'll see a warning.</t>
+          <t xml:space="preserve">Stored access policies give you the option to revoke permissions for a service SAS without having to regenerate the storage account keys. </t>
         </is>
       </c>
       <c r="E27" s="22" t="inlineStr">
@@ -2072,14 +2060,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/sas-expiration-policy</t>
+          <t>https://learn.microsoft.com/rest/api/storageservices/define-stored-access-policy</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
+          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2100,17 +2088,17 @@
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Consider linking SAS to a stored access policy</t>
+          <t>Consider storing connection strings in Azure KeyVault (in scenarios where managed identities are not possible)</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stored access policies give you the option to revoke permissions for a service SAS without having to regenerate the storage account keys. </t>
+          <t>Ideally, your application should be using a managed identity to authenticate to Azure Storage. If that is not possible, consider having the storage credential (connection string, storage account key, SAS, service principal credential) in Azure KeyVault or an equivalent service.</t>
         </is>
       </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2121,14 +2109,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/storageservices/define-stored-access-policy</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/security/design-storage-keys</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
+          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2144,18 +2132,22 @@
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>CI/CD</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Consider configuring your application's source code repository to detect checked-in connection strings and storage account keys.</t>
-        </is>
-      </c>
-      <c r="D29" s="22" t="n"/>
+          <t>Strive for short validity periods for ad-hoc SAS</t>
+        </is>
+      </c>
+      <c r="D29" s="22" t="inlineStr">
+        <is>
+          <t>Use near-term expiration times on an ad hoc SAS service SAS or account SAS. In this way, even if a SAS is compromised, it's valid only for a short time. This practice is especially important if you cannot reference a stored access policy. Near-term expiration times also limit the amount of data that can be written to a blob by limiting the time available to upload to it.</t>
+        </is>
+      </c>
       <c r="E29" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2166,14 +2158,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://microsoft.github.io/code-with-engineering-playbook/continuous-integration/dev-sec-ops/secret-management/recipes/detect-secrets-ado/</t>
+          <t>https://learn.microsoft.com/rest/api/storageservices/delegate-access-with-shared-access-signature</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
+          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2194,17 +2186,17 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Consider storing connection strings in Azure KeyVault (in scenarios where managed identities are not possible)</t>
+          <t>Apply a narrow scope to a SAS</t>
         </is>
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t>Ideally, your application should be using a managed identity to authenticate to Azure Storage. If that is not possible, consider having the storage credential (connection string, storage account key, SAS, service principal credential) in Azure KeyVault or an equivalent service.</t>
+          <t>When creating a SAS, be as specific and restrictive as possible. Prefer a SAS for a single resource and operation over a SAS which gives much broader access.</t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2215,14 +2207,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/security/design-storage-keys</t>
+          <t>https://learn.microsoft.com/rest/api/storageservices/delegate-access-with-shared-access-signature</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
+          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2243,17 +2235,17 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Strive for short validity periods for ad-hoc SAS</t>
+          <t>Consider scoping SAS to a specific client IP address, wherever possible</t>
         </is>
       </c>
       <c r="D31" s="22" t="inlineStr">
         <is>
-          <t>Use near-term expiration times on an ad hoc SAS service SAS or account SAS. In this way, even if a SAS is compromised, it's valid only for a short time. This practice is especially important if you cannot reference a stored access policy. Near-term expiration times also limit the amount of data that can be written to a blob by limiting the time available to upload to it.</t>
+          <t xml:space="preserve">A SAS can include parameters on which client IP addresses or address ranges are authorized to request a resource using the SAS. </t>
         </is>
       </c>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2264,14 +2256,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/storageservices/delegate-access-with-shared-access-signature</t>
+          <t>https://learn.microsoft.com/rest/api/storageservices/create-account-sas</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
+          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2292,17 +2284,17 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Apply a narrow scope to a SAS</t>
+          <t xml:space="preserve">Consider checking uploaded data, after clients used a SAS to upload a file. </t>
         </is>
       </c>
       <c r="D32" s="22" t="inlineStr">
         <is>
-          <t>When creating a SAS, be as specific and restrictive as possible. Prefer a SAS for a single resource and operation over a SAS which gives much broader access.</t>
+          <t>A SAS cannot constrain how much data a client uploads; given the pricing model of amount of storage over time, it might make sense to validate whether clients uploaded maliciously large contents.</t>
         </is>
       </c>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2311,17 +2303,13 @@
         </is>
       </c>
       <c r="G32" s="22" t="n"/>
-      <c r="H32" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/rest/api/storageservices/delegate-access-with-shared-access-signature</t>
-        </is>
-      </c>
+      <c r="H32" s="16" t="n"/>
       <c r="I32" s="16" t="n"/>
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
+          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2342,17 +2330,17 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Consider scoping SAS to a specific client IP address, wherever possible</t>
+          <t>SFTP: Limit the amount of 'local users' for SFTP access, and audit whether access is needed over time.</t>
         </is>
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">A SAS can include parameters on which client IP addresses or address ranges are authorized to request a resource using the SAS. </t>
+          <t>When accessing blob storage via SFTP using a 'local user account', the 'usual' RBAC controls do not apply. Blob access via NFS or REST might be more restrictive than SFTP access. Unfortunately, as of early 2023, local users are the only form of identity management that is currently supported for the SFTP endpoint</t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2363,7 +2351,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/storageservices/create-account-sas</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/secure-file-transfer-protocol-support#sftp-permission-model</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2371,7 +2359,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
+          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2392,17 +2380,13 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consider checking uploaded data, after clients used a SAS to upload a file. </t>
-        </is>
-      </c>
-      <c r="D34" s="22" t="inlineStr">
-        <is>
-          <t>A SAS cannot constrain how much data a client uploads; given the pricing model of amount of storage over time, it might make sense to validate whether clients uploaded maliciously large contents.</t>
-        </is>
-      </c>
+          <t>SFTP: The SFTP endpoint does not support POSIX-like ACLs.</t>
+        </is>
+      </c>
+      <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2411,13 +2395,17 @@
         </is>
       </c>
       <c r="G34" s="22" t="n"/>
-      <c r="H34" s="16" t="n"/>
+      <c r="H34" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/secure-file-transfer-protocol-known-issues#authentication-and-authorization</t>
+        </is>
+      </c>
       <c r="I34" s="16" t="n"/>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
+          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2438,12 +2426,12 @@
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>SFTP: Limit the amount of 'local users' for SFTP access, and audit whether access is needed over time.</t>
+          <t xml:space="preserve">Consider whether public blob access is needed, or whether it can be disabled for certain storage accounts. </t>
         </is>
       </c>
       <c r="D35" s="22" t="inlineStr">
         <is>
-          <t>When accessing blob storage via SFTP using a 'local user account', the 'usual' RBAC controls do not apply. Blob access via NFS or REST might be more restrictive than SFTP access. Unfortunately, as of early 2023, local users are the only form of identity management that is currently supported for the SFTP endpoint</t>
+          <t>Leverage Resource Graph Explorer (resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true) to find storage accounts which allow anonymous blob access.</t>
         </is>
       </c>
       <c r="E35" s="22" t="inlineStr">
@@ -2459,7 +2447,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/secure-file-transfer-protocol-support#sftp-permission-model</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/anonymous-read-access-configure?tabs=portal#allow-or-disallow-public-read-access-for-a-storage-account</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2467,7 +2455,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
+          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2483,18 +2471,22 @@
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>SFTP: The SFTP endpoint does not support POSIX-like ACLs.</t>
-        </is>
-      </c>
-      <c r="D36" s="22" t="n"/>
+          <t>Consider using Azure Monitor to audit control plane operations on the storage account</t>
+        </is>
+      </c>
+      <c r="D36" s="22" t="inlineStr">
+        <is>
+          <t>Use Activity Log data to identify 'when', 'who', 'what' and 'how' the security of your storage account is being viewed or changed (i.e. storage account keys, access policies, etc.).</t>
+        </is>
+      </c>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2505,7 +2497,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/secure-file-transfer-protocol-known-issues#authentication-and-authorization</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/blob-storage-monitoring-scenarios#audit-account-activity</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2513,7 +2505,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
+          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2534,12 +2526,12 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Avoid overly broad CORS policies</t>
+          <t>Consider using private endpoints for Azure Storage</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
         <is>
-          <t>Storage supports CORS (Cross-Origin Resource Sharing), i.e. an HTTP feature that enables web apps from a different domain to loosen the same-origin policy. When enabling CORS, keep the CorsRules to the least privilege.</t>
+          <t>Azure Storage by default has a public IP address and is Internet-reachable. Private endpoints allow to securely expose Azure Storage only to those Azure Compute resources that need access, thus eliminating exposure to the public Internet</t>
         </is>
       </c>
       <c r="E37" s="22" t="inlineStr">
@@ -2555,7 +2547,7 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/storageservices/cross-origin-resource-sharing--cors--support-for-the-azure-storage-services</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-private-endpoints</t>
         </is>
       </c>
       <c r="I37" s="16" t="n"/>
@@ -2563,7 +2555,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
+          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2579,17 +2571,17 @@
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Confidentiality and Encryption</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Determine how data at rest should be encrypted. Understand the thread model for data.</t>
+          <t>Require HTTPS, i.e. disable port 80 on the storage account</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t>Data at rest is always encrypted server-side, and in addition might be encrypted client-side as well. Server-side encryption might happen using a platform-managed key (default) or customer-managed key. Client-side encryption might happen by either having the client supply an encryption/decryption key on a per-blob basis to Azure storage, or by completely handling encryption on the client-side. thus not relying on Azure Storage at all for confidentiality guarantees.</t>
+          <t xml:space="preserve">Consider disabling unprotected HTTP/80 access to the storage account, so that all data transfers are encrypted, integrity protected, and the server is authenticated. </t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
@@ -2605,7 +2597,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2613,7 +2605,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2629,18 +2621,22 @@
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Confidentiality and Encryption</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Determine which/if platform encryption should be used.</t>
-        </is>
-      </c>
-      <c r="D39" s="22" t="n"/>
+          <t>When enforcing HTTPS (disabling HTTP), check that you do not use custom domains (CNAME) for the storage account.</t>
+        </is>
+      </c>
+      <c r="D39" s="22" t="inlineStr">
+        <is>
+          <t>When configuring a custom domain (hostname) on a storage account, check whether you need TLS/HTTPS; if so, you might have to put Azure CDN in front of your storage account.</t>
+        </is>
+      </c>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2651,7 +2647,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/customer-managed-keys-overview?toc=%2Fazure%2Fstorage%2Fblobs%2Ftoc.json&amp;bc=%2Fazure%2Fstorage%2Fblobs%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/storage-custom-domain-name</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2659,7 +2655,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2675,15 +2671,19 @@
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Confidentiality and Encryption</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Determine which/if client-side encryption should be used.</t>
-        </is>
-      </c>
-      <c r="D40" s="22" t="n"/>
+          <t>Limit shared access signature (SAS) tokens to HTTPS connections only</t>
+        </is>
+      </c>
+      <c r="D40" s="22" t="inlineStr">
+        <is>
+          <t>Requiring HTTPS when a client uses a SAS token to access blob data helps to minimize the risk of credential loss.</t>
+        </is>
+      </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2697,7 +2697,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/encryption-customer-provided-keys</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-sas-overview</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2705,7 +2705,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2721,17 +2721,17 @@
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consider whether public blob access is needed, or whether it can be disabled for certain storage accounts. </t>
+          <t>Avoid overly broad CORS policies</t>
         </is>
       </c>
       <c r="D41" s="22" t="inlineStr">
         <is>
-          <t>Leverage Resource Graph Explorer (resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true) to find storage accounts which allow anonymous blob access.</t>
+          <t>Storage supports CORS (Cross-Origin Resource Sharing), i.e. an HTTP feature that enables web apps from a different domain to loosen the same-origin policy. When enabling CORS, keep the CorsRules to the least privilege.</t>
         </is>
       </c>
       <c r="E41" s="22" t="inlineStr">
@@ -2747,7 +2747,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/anonymous-read-access-configure?tabs=portal#allow-or-disallow-public-read-access-for-a-storage-account</t>
+          <t>https://learn.microsoft.com/rest/api/storageservices/cross-origin-resource-sharing--cors--support-for-the-azure-storage-services</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2755,7 +2755,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -11600,7 +11600,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11684,7 +11684,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11741,43 +11741,43 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F42" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F42" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
